--- a/DataBase/LCJ_Arrivals.xlsx
+++ b/DataBase/LCJ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>NUMBER</t>
   </si>
@@ -180,6 +180,45 @@
   </si>
   <si>
     <t>0 hours, -23 minutes</t>
+  </si>
+  <si>
+    <t>Monday, Jan 09</t>
+  </si>
+  <si>
+    <t>9:05 AM</t>
+  </si>
+  <si>
+    <t>W95177</t>
+  </si>
+  <si>
+    <t>(LTN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wizz Air </t>
+  </si>
+  <si>
+    <t>A320</t>
+  </si>
+  <si>
+    <t>(G-WUKD)</t>
+  </si>
+  <si>
+    <t>9:04 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -1 minutes</t>
+  </si>
+  <si>
+    <t>10:25 AM</t>
+  </si>
+  <si>
+    <t>(EI-HEW)</t>
+  </si>
+  <si>
+    <t>10:14 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -11 minutes</t>
   </si>
 </sst>
 </file>
@@ -224,7 +263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -487,6 +526,80 @@
       </c>
       <c r="M7" s="0"/>
     </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="K8" s="0"/>
+      <c r="L8" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="M8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="K9" s="0"/>
+      <c r="L9" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="M9" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LCJ_Arrivals.xlsx
+++ b/DataBase/LCJ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>NUMBER</t>
   </si>
@@ -219,6 +219,33 @@
   </si>
   <si>
     <t>0 hours, -11 minutes</t>
+  </si>
+  <si>
+    <t>2:02 PM</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>Palma de</t>
+  </si>
+  <si>
+    <t>(PMI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMC Aviation </t>
+  </si>
+  <si>
+    <t>C25B</t>
+  </si>
+  <si>
+    <t>(SP-KOW)</t>
+  </si>
+  <si>
+    <t>1:53 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -9 minutes</t>
   </si>
 </sst>
 </file>
@@ -263,7 +290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -600,6 +627,43 @@
       </c>
       <c r="M9" s="0"/>
     </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="K10" s="0"/>
+      <c r="L10" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="M10" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LCJ_Arrivals.xlsx
+++ b/DataBase/LCJ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="90">
   <si>
     <t>NUMBER</t>
   </si>
@@ -246,6 +246,42 @@
   </si>
   <si>
     <t>0 hours, -9 minutes</t>
+  </si>
+  <si>
+    <t>Wednesday, Jan 11</t>
+  </si>
+  <si>
+    <t>9:55 AM</t>
+  </si>
+  <si>
+    <t>(EI-EVL)</t>
+  </si>
+  <si>
+    <t>0 hours, -21 minutes</t>
+  </si>
+  <si>
+    <t>5:20 PM</t>
+  </si>
+  <si>
+    <t>(9H-QCW)</t>
+  </si>
+  <si>
+    <t>4:57 PM</t>
+  </si>
+  <si>
+    <t>Thursday, Jan 12</t>
+  </si>
+  <si>
+    <t>7:05 PM</t>
+  </si>
+  <si>
+    <t>(EI-DPN)</t>
+  </si>
+  <si>
+    <t>7:01 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -4 minutes</t>
   </si>
 </sst>
 </file>
@@ -290,7 +326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -664,6 +700,117 @@
       </c>
       <c r="M10" s="0"/>
     </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="K11" s="0"/>
+      <c r="L11" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="M11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="K12" s="0"/>
+      <c r="L12" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="M12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="K13" s="0"/>
+      <c r="L13" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="M13" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LCJ_Arrivals.xlsx
+++ b/DataBase/LCJ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
   <si>
     <t>NUMBER</t>
   </si>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t>0 hours, -4 minutes</t>
+  </si>
+  <si>
+    <t>Friday, Jan 13</t>
+  </si>
+  <si>
+    <t>(G-WUKF)</t>
+  </si>
+  <si>
+    <t>8:41 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -24 minutes</t>
   </si>
 </sst>
 </file>
@@ -326,7 +338,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -811,6 +823,43 @@
       </c>
       <c r="M13" s="0"/>
     </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="K14" s="0"/>
+      <c r="L14" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="M14" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LCJ_Arrivals.xlsx
+++ b/DataBase/LCJ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="102">
   <si>
     <t>NUMBER</t>
   </si>
@@ -294,6 +294,30 @@
   </si>
   <si>
     <t>0 hours, -24 minutes</t>
+  </si>
+  <si>
+    <t>5:40 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauda Europe </t>
+  </si>
+  <si>
+    <t>(9H-LOA)</t>
+  </si>
+  <si>
+    <t>6:48 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 8 minutes</t>
+  </si>
+  <si>
+    <t>7:00 PM</t>
+  </si>
+  <si>
+    <t>(EI-DHZ)</t>
+  </si>
+  <si>
+    <t>6:37 PM</t>
   </si>
 </sst>
 </file>
@@ -338,7 +362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -860,6 +884,80 @@
       </c>
       <c r="M14" s="0"/>
     </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="K15" s="0"/>
+      <c r="L15" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="M15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="K16" s="0"/>
+      <c r="L16" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="M16" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LCJ_Arrivals.xlsx
+++ b/DataBase/LCJ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="113">
   <si>
     <t>NUMBER</t>
   </si>
@@ -318,6 +318,39 @@
   </si>
   <si>
     <t>6:37 PM</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 14</t>
+  </si>
+  <si>
+    <t>8:40 AM</t>
+  </si>
+  <si>
+    <t>FR9884</t>
+  </si>
+  <si>
+    <t>Brussels</t>
+  </si>
+  <si>
+    <t>(CRL)</t>
+  </si>
+  <si>
+    <t>(EI-ENJ)</t>
+  </si>
+  <si>
+    <t>8:20 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -20 minutes</t>
+  </si>
+  <si>
+    <t>(EI-HGP)</t>
+  </si>
+  <si>
+    <t>2:01 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -14 minutes</t>
   </si>
 </sst>
 </file>
@@ -362,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -958,6 +991,80 @@
       </c>
       <c r="M16" s="0"/>
     </row>
+    <row r="17">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="K17" s="0"/>
+      <c r="L17" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="M17" s="0"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="K18" s="0"/>
+      <c r="L18" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="M18" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LCJ_Arrivals.xlsx
+++ b/DataBase/LCJ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="116">
   <si>
     <t>NUMBER</t>
   </si>
@@ -351,6 +351,15 @@
   </si>
   <si>
     <t>0 hours, -14 minutes</t>
+  </si>
+  <si>
+    <t>(9H-QEC)</t>
+  </si>
+  <si>
+    <t>8:11 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 11 minutes</t>
   </si>
 </sst>
 </file>
@@ -395,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1065,6 +1074,43 @@
       </c>
       <c r="M18" s="0"/>
     </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="K19" s="0"/>
+      <c r="L19" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="M19" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LCJ_Arrivals.xlsx
+++ b/DataBase/LCJ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="125">
   <si>
     <t>NUMBER</t>
   </si>
@@ -360,6 +360,33 @@
   </si>
   <si>
     <t>0 hours, 11 minutes</t>
+  </si>
+  <si>
+    <t>Sunday, Jan 15</t>
+  </si>
+  <si>
+    <t>9:23 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -27 minutes</t>
+  </si>
+  <si>
+    <t>(EI-HMV)</t>
+  </si>
+  <si>
+    <t>10:02 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -3 minutes</t>
+  </si>
+  <si>
+    <t>(EI-DYZ)</t>
+  </si>
+  <si>
+    <t>10:12 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -18 minutes</t>
   </si>
 </sst>
 </file>
@@ -404,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1111,6 +1138,117 @@
       </c>
       <c r="M19" s="0"/>
     </row>
+    <row r="20">
+      <c r="A20" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="K20" s="0"/>
+      <c r="L20" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="M20" s="0"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="K21" s="0"/>
+      <c r="L21" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="M21" s="0"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="K22" s="0"/>
+      <c r="L22" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="M22" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LCJ_Arrivals.xlsx
+++ b/DataBase/LCJ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="129">
   <si>
     <t>NUMBER</t>
   </si>
@@ -387,6 +387,18 @@
   </si>
   <si>
     <t>0 hours, -18 minutes</t>
+  </si>
+  <si>
+    <t>Monday, Jan 16</t>
+  </si>
+  <si>
+    <t>8:54 AM</t>
+  </si>
+  <si>
+    <t>(EI-IFR)</t>
+  </si>
+  <si>
+    <t>10:20 AM</t>
   </si>
 </sst>
 </file>
@@ -431,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1249,6 +1261,80 @@
       </c>
       <c r="M22" s="0"/>
     </row>
+    <row r="23">
+      <c r="A23" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="K23" s="0"/>
+      <c r="L23" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="M23" s="0"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="K24" s="0"/>
+      <c r="L24" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="M24" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LCJ_Arrivals.xlsx
+++ b/DataBase/LCJ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="152">
   <si>
     <t>NUMBER</t>
   </si>
@@ -399,6 +399,75 @@
   </si>
   <si>
     <t>10:20 AM</t>
+  </si>
+  <si>
+    <t>9:15 PM</t>
+  </si>
+  <si>
+    <t>(9H-VVA)</t>
+  </si>
+  <si>
+    <t>8:57 PM</t>
+  </si>
+  <si>
+    <t>Tuesday, Jan 17</t>
+  </si>
+  <si>
+    <t>12:35 PM</t>
+  </si>
+  <si>
+    <t>(EI-DYP)</t>
+  </si>
+  <si>
+    <t>12:09 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -26 minutes</t>
+  </si>
+  <si>
+    <t>6:17 PM</t>
+  </si>
+  <si>
+    <t>VTB200</t>
+  </si>
+  <si>
+    <t>Szczecin</t>
+  </si>
+  <si>
+    <t>(SZZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JetStream </t>
+  </si>
+  <si>
+    <t>C650</t>
+  </si>
+  <si>
+    <t>(HA-JEX)</t>
+  </si>
+  <si>
+    <t>8:16 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 59 minutes</t>
+  </si>
+  <si>
+    <t>Wednesday, Jan 18</t>
+  </si>
+  <si>
+    <t>(EI-EKC)</t>
+  </si>
+  <si>
+    <t>9:44 AM</t>
+  </si>
+  <si>
+    <t>(9H-QAZ)</t>
+  </si>
+  <si>
+    <t>5:10 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -10 minutes</t>
   </si>
 </sst>
 </file>
@@ -443,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1335,6 +1404,191 @@
       </c>
       <c r="M24" s="0"/>
     </row>
+    <row r="25">
+      <c r="A25" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="K25" s="0"/>
+      <c r="L25" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="M25" s="0"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="K26" s="0"/>
+      <c r="L26" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M26" s="0"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="K27" s="0"/>
+      <c r="L27" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="M27" s="0"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="K28" s="0"/>
+      <c r="L28" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="M28" s="0"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="K29" s="0"/>
+      <c r="L29" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="M29" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LCJ_Arrivals.xlsx
+++ b/DataBase/LCJ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="165">
   <si>
     <t>NUMBER</t>
   </si>
@@ -468,6 +468,45 @@
   </si>
   <si>
     <t>0 hours, -10 minutes</t>
+  </si>
+  <si>
+    <t>Friday, Jan 20</t>
+  </si>
+  <si>
+    <t>10:01 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 56 minutes</t>
+  </si>
+  <si>
+    <t>(9H-LOQ)</t>
+  </si>
+  <si>
+    <t>5:58 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 18 minutes</t>
+  </si>
+  <si>
+    <t>(EI-EKM)</t>
+  </si>
+  <si>
+    <t>7:02 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 2 minutes</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 21</t>
+  </si>
+  <si>
+    <t>(EI-DLI)</t>
+  </si>
+  <si>
+    <t>8:34 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -6 minutes</t>
   </si>
 </sst>
 </file>
@@ -512,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1589,6 +1628,154 @@
       </c>
       <c r="M29" s="0"/>
     </row>
+    <row r="30">
+      <c r="A30" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="K30" s="0"/>
+      <c r="L30" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="M30" s="0"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="K31" s="0"/>
+      <c r="L31" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="M31" s="0"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="K32" s="0"/>
+      <c r="L32" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="M32" s="0"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="J33" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="K33" s="0"/>
+      <c r="L33" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="M33" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LCJ_Arrivals.xlsx
+++ b/DataBase/LCJ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="212">
   <si>
     <t>NUMBER</t>
   </si>
@@ -470,43 +470,184 @@
     <t>0 hours, -10 minutes</t>
   </si>
   <si>
-    <t>Friday, Jan 20</t>
-  </si>
-  <si>
-    <t>10:01 AM</t>
-  </si>
-  <si>
-    <t>0 hours, 56 minutes</t>
-  </si>
-  <si>
-    <t>(9H-LOQ)</t>
-  </si>
-  <si>
-    <t>5:58 PM</t>
+    <t>Monday, Jan 23</t>
+  </si>
+  <si>
+    <t>9:08 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 3 minutes</t>
+  </si>
+  <si>
+    <t>10:04 AM</t>
+  </si>
+  <si>
+    <t>FTY14</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>(ZRH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fly Tyrol </t>
+  </si>
+  <si>
+    <t>(OE-GAF)</t>
+  </si>
+  <si>
+    <t>9:58 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -6 minutes</t>
+  </si>
+  <si>
+    <t>(EI-HGV)</t>
+  </si>
+  <si>
+    <t>0 hours, 5 minutes</t>
+  </si>
+  <si>
+    <t>5:16 PM</t>
+  </si>
+  <si>
+    <t>ED7853</t>
+  </si>
+  <si>
+    <t>Aktobe</t>
+  </si>
+  <si>
+    <t>(AKX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDS Cargo Group </t>
+  </si>
+  <si>
+    <t>(OM-EDA)</t>
+  </si>
+  <si>
+    <t>5:34 PM</t>
   </si>
   <si>
     <t>0 hours, 18 minutes</t>
   </si>
   <si>
-    <t>(EI-EKM)</t>
-  </si>
-  <si>
-    <t>7:02 PM</t>
-  </si>
-  <si>
-    <t>0 hours, 2 minutes</t>
-  </si>
-  <si>
-    <t>Saturday, Jan 21</t>
-  </si>
-  <si>
-    <t>(EI-DLI)</t>
-  </si>
-  <si>
-    <t>8:34 AM</t>
-  </si>
-  <si>
-    <t>0 hours, -6 minutes</t>
+    <t>(9H-VUH)</t>
+  </si>
+  <si>
+    <t>9:20 PM</t>
+  </si>
+  <si>
+    <t>Wednesday, Jan 25</t>
+  </si>
+  <si>
+    <t>(EI-ESV)</t>
+  </si>
+  <si>
+    <t>10:08 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 13 minutes</t>
+  </si>
+  <si>
+    <t>(9H-QCS)</t>
+  </si>
+  <si>
+    <t>5:30 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 10 minutes</t>
+  </si>
+  <si>
+    <t>Thursday, Jan 26</t>
+  </si>
+  <si>
+    <t>9:52 AM</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>(LIL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fly 7 </t>
+  </si>
+  <si>
+    <t>PC12</t>
+  </si>
+  <si>
+    <t>(OH-EVE)</t>
+  </si>
+  <si>
+    <t>10:06 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 14 minutes</t>
+  </si>
+  <si>
+    <t>1:54 PM</t>
+  </si>
+  <si>
+    <t>GDK8</t>
+  </si>
+  <si>
+    <t>Wiener Neustadt</t>
+  </si>
+  <si>
+    <t>(QEW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goldeck Flug </t>
+  </si>
+  <si>
+    <t>(OE-EPG)</t>
+  </si>
+  <si>
+    <t>2:00 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 6 minutes</t>
+  </si>
+  <si>
+    <t>Friday, Jan 27</t>
+  </si>
+  <si>
+    <t>9:02 AM</t>
+  </si>
+  <si>
+    <t>(9H-LOP)</t>
+  </si>
+  <si>
+    <t>5:43 PM</t>
+  </si>
+  <si>
+    <t>(EI-EBC)</t>
+  </si>
+  <si>
+    <t>7:15 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 15 minutes</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 28</t>
+  </si>
+  <si>
+    <t>(EI-DHX)</t>
+  </si>
+  <si>
+    <t>8:39 AM</t>
+  </si>
+  <si>
+    <t>(EI-HGT)</t>
+  </si>
+  <si>
+    <t>2:16 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 1 minutes</t>
   </si>
 </sst>
 </file>
@@ -551,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1673,32 +1814,32 @@
         <v>152</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s" s="0">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="J31" t="s" s="0">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K31" s="0"/>
       <c r="L31" t="s" s="0">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="M31" s="0"/>
     </row>
@@ -1710,32 +1851,32 @@
         <v>152</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G32" t="s" s="0">
         <v>24</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s" s="0">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="J32" t="s" s="0">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="K32" s="0"/>
       <c r="L32" t="s" s="0">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M32" s="0"/>
     </row>
@@ -1744,37 +1885,407 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="G33" t="s" s="0">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="H33" t="s" s="0">
         <v>25</v>
       </c>
       <c r="I33" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J33" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="K33" s="0"/>
       <c r="L33" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="M33" s="0"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="J34" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="K34" s="0"/>
+      <c r="L34" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="M33" s="0"/>
+      <c r="M34" s="0"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I35" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="J35" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="K35" s="0"/>
+      <c r="L35" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="M35" s="0"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I36" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="J36" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="K36" s="0"/>
+      <c r="L36" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="M36" s="0"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="I37" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="J37" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="K37" s="0"/>
+      <c r="L37" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="M37" s="0"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="H38" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="I38" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="J38" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="K38" s="0"/>
+      <c r="L38" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="M38" s="0"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="I39" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J39" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="K39" s="0"/>
+      <c r="L39" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="M39" s="0"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="I40" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="J40" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="K40" s="0"/>
+      <c r="L40" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="M40" s="0"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I41" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="J41" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="K41" s="0"/>
+      <c r="L41" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="M41" s="0"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H42" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I42" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="J42" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="K42" s="0"/>
+      <c r="L42" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="M42" s="0"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="I43" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="J43" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="K43" s="0"/>
+      <c r="L43" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="M43" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/DataBase/LCJ_Arrivals.xlsx
+++ b/DataBase/LCJ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="223">
   <si>
     <t>NUMBER</t>
   </si>
@@ -648,6 +648,39 @@
   </si>
   <si>
     <t>0 hours, 1 minutes</t>
+  </si>
+  <si>
+    <t>Sunday, Jan 29</t>
+  </si>
+  <si>
+    <t>(EI-IFV)</t>
+  </si>
+  <si>
+    <t>(EI-DCZ)</t>
+  </si>
+  <si>
+    <t>10:35 AM</t>
+  </si>
+  <si>
+    <t>Monday, Jan 30</t>
+  </si>
+  <si>
+    <t>A321</t>
+  </si>
+  <si>
+    <t>(G-WUKI)</t>
+  </si>
+  <si>
+    <t>8:43 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -22 minutes</t>
+  </si>
+  <si>
+    <t>(EI-HAW)</t>
+  </si>
+  <si>
+    <t>10:03 AM</t>
   </si>
 </sst>
 </file>
@@ -692,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2287,6 +2320,191 @@
       </c>
       <c r="M43" s="0"/>
     </row>
+    <row r="44">
+      <c r="A44" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="I44" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="J44" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="K44" s="0"/>
+      <c r="L44" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="M44" s="0"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="I45" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="J45" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="K45" s="0"/>
+      <c r="L45" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="M45" s="0"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H46" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I46" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="J46" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="K46" s="0"/>
+      <c r="L46" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="M46" s="0"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="H47" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="I47" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="J47" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="K47" s="0"/>
+      <c r="L47" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="M47" s="0"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="I48" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="J48" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="K48" s="0"/>
+      <c r="L48" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="M48" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
